--- a/sequencing_methods.xlsx
+++ b/sequencing_methods.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="10640" yWindow="0" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sequencing_methods.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>download problems, large file, PEAT alone &gt;120.000 hits on Pubmed</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>downloading problems, need to look into that… [Error in validObject(.Object) : 
+  invalid class “EUtilsSummary” object: invalid object for slot "PMID" in class "EUtilsSummary": got class "list", should be or extend class "character" ]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +96,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="D49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">download problems, need to look into that. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -305,9 +348,6 @@
     <t>Transcript isoform sequencing (TIF-Seq) or Paired-end analysis of TSSS (PEAT)</t>
   </si>
   <si>
-    <t>(PEAT AND (sequence OR sequencing)</t>
-  </si>
-  <si>
     <t>tobacco acid pyrophosphatase</t>
   </si>
   <si>
@@ -627,13 +667,40 @@
   </si>
   <si>
     <t>Kivioja, Teemu, et al. "Counting absolute numbers of molecules using unique molecular identifiers." Nature methods 9.1 (2012): 72-74.</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>CLIP-Seq_HITS-CLIP</t>
+  </si>
+  <si>
+    <t>(PEAT</t>
+  </si>
+  <si>
+    <t>(PEAT AND (sequence OR sequencing))</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>PARS-Seq AND (sequence OR sequencing) AND method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDA AND (sequence OR sequencing) AND (RNA OR DNA OR Protein) </t>
+  </si>
+  <si>
+    <t>4C_on-Chip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,6 +714,22 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -684,8 +767,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -693,7 +782,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1023,20 +1118,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+    <col min="3" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,19 +1139,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1067,16 +1165,19 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1087,13 +1188,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1104,16 +1208,19 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1124,13 +1231,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1141,16 +1251,19 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1161,13 +1274,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1178,16 +1294,19 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1198,13 +1317,16 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1215,13 +1337,16 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1232,13 +1357,16 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1249,13 +1377,16 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1263,19 +1394,22 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1283,16 +1417,19 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1300,16 +1437,19 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1317,16 +1457,19 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1337,16 +1480,19 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1357,13 +1503,16 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1374,16 +1523,19 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1394,16 +1546,19 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1414,13 +1569,16 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1428,612 +1586,712 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>74</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>78</v>
       </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
         <v>66</v>
       </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>93</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>101</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
         <v>66</v>
       </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="G31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>107</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>111</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
         <v>66</v>
       </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
         <v>66</v>
       </c>
-      <c r="F34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>118</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
         <v>66</v>
       </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>123</v>
       </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
         <v>126</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>127</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>128</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
         <v>131</v>
       </c>
-      <c r="D38" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" t="s">
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>135</v>
       </c>
-      <c r="F39" t="s">
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>137</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
         <v>138</v>
       </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>140</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
         <v>141</v>
       </c>
-      <c r="D41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>142</v>
       </c>
-      <c r="F41" t="s">
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
         <v>145</v>
       </c>
-      <c r="D42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>147</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" t="s">
         <v>148</v>
       </c>
-      <c r="D43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>149</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>151</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" t="s">
         <v>152</v>
       </c>
-      <c r="D44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" t="s">
         <v>155</v>
       </c>
-      <c r="D45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>156</v>
       </c>
-      <c r="F45" t="s">
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>159</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>161</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
         <v>162</v>
       </c>
-      <c r="D47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" t="s">
         <v>164</v>
       </c>
-      <c r="C48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
         <v>167</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>168</v>
       </c>
-      <c r="F49" t="s">
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>170</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
         <v>171</v>
       </c>
-      <c r="D50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" t="s">
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>173</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" t="s">
         <v>174</v>
       </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" t="s">
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>176</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
         <v>177</v>
       </c>
-      <c r="D52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" t="s">
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>179</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" t="s">
         <v>180</v>
       </c>
-      <c r="D53" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" t="s">
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>182</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" t="s">
         <v>183</v>
-      </c>
-      <c r="D54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/sequencing_methods.xlsx
+++ b/sequencing_methods.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="0" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sequencing_methods.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -18,102 +18,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Joerg Heintz</author>
-  </authors>
-  <commentList>
-    <comment ref="C23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>download problems, large file, PEAT alone &gt;120.000 hits on Pubmed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>download problems, large file, PEAT alone &gt;120.000 hits on Pubmed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>downloading problems, need to look into that… [Error in validObject(.Object) : 
-  invalid class “EUtilsSummary” object: invalid object for slot "PMID" in class "EUtilsSummary": got class "list", should be or extend class "character" ]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>downloading problems, need to look into that… [Error in validObject(.Object) : 
-  invalid class “EUtilsSummary” object: invalid object for slot "PMID" in class "EUtilsSummary": got class "list", should be or extend class "character" ]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">download problems, need to look into that. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">download problems, need to look into that. </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="193">
   <si>
@@ -153,7 +57,7 @@
     <t>reChIP-seq</t>
   </si>
   <si>
-    <t>Furlan-Magaril, Mayra, H_ctor Rincãn-Arano, and F_lix Recillas-Targa. "Sequential chromatin immunoprecipitation protocol: ChIP-reChIP." DNA-Protein Interactions. Humana Press, 2009. 253-266.</t>
+    <t>Furlan-Magaril, Mayra, H_ctor Rinc†n-Arano, and F_lix Recillas-Targa. "Sequential chromatin immunoprecipitation protocol: ChIP-reChIP." DNA-Protein Interactions. Humana Press, 2009. 253-266.</t>
   </si>
   <si>
     <t>Competition-ChIP</t>
@@ -240,7 +144,10 @@
     <t>Chromosome conformation capture (3C)</t>
   </si>
   <si>
-    <t>(3C AND chromosome)</t>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3C AND chromosome</t>
   </si>
   <si>
     <t>chromatin interaction</t>
@@ -255,6 +162,9 @@
     <t>Circularized chromosome conformation capture (4C)</t>
   </si>
   <si>
+    <t>4C</t>
+  </si>
+  <si>
     <t>(4C AND chromosome)</t>
   </si>
   <si>
@@ -264,6 +174,9 @@
     <t>Chromosome conformation capture _on-chip (4C)</t>
   </si>
   <si>
+    <t>4C_on-Chip</t>
+  </si>
+  <si>
     <t>(4C AND on-chip)</t>
   </si>
   <si>
@@ -273,6 +186,9 @@
     <t>Chromosome conformation capture carbon copy (5C)</t>
   </si>
   <si>
+    <t>5C</t>
+  </si>
+  <si>
     <t>(5C AND Chromosome)</t>
   </si>
   <si>
@@ -336,6 +252,9 @@
     <t>Crosslinking and immunoprecipitation sequencing (CLIP-Seq/HITS-CLIP)</t>
   </si>
   <si>
+    <t>CLIP-Seq_HITS-CLIP</t>
+  </si>
+  <si>
     <t>(CLIP-Seq OR HITS-CLIP)</t>
   </si>
   <si>
@@ -348,6 +267,9 @@
     <t>Transcript isoform sequencing (TIF-Seq) or Paired-end analysis of TSSS (PEAT)</t>
   </si>
   <si>
+    <t>(PEAT</t>
+  </si>
+  <si>
     <t>tobacco acid pyrophosphatase</t>
   </si>
   <si>
@@ -426,7 +348,10 @@
     <t>Parallel Analysis of RNA Structure (PARS-Seq)</t>
   </si>
   <si>
-    <t>PARS-Seq</t>
+    <t>PARS</t>
+  </si>
+  <si>
+    <t>PARS AND RNA</t>
   </si>
   <si>
     <t>Kertesz, Michael, et al. "Genome-wide measurement of RNA secondary structure in yeast." Nature 467.7311 (2010): 103-107.</t>
@@ -618,6 +543,9 @@
     <t>MDA</t>
   </si>
   <si>
+    <t xml:space="preserve">MDA AND (sequence OR sequencing) AND (RNA OR DNA OR Protein) </t>
+  </si>
+  <si>
     <t>Single-cell DNA/RNA genomics</t>
   </si>
   <si>
@@ -669,38 +597,14 @@
     <t>Kivioja, Teemu, et al. "Counting absolute numbers of molecules using unique molecular identifiers." Nature methods 9.1 (2012): 72-74.</t>
   </si>
   <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>CLIP-Seq_HITS-CLIP</t>
-  </si>
-  <si>
-    <t>(PEAT</t>
-  </si>
-  <si>
-    <t>(PEAT AND (sequence OR sequencing))</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>PARS-Seq AND (sequence OR sequencing) AND method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDA AND (sequence OR sequencing) AND (RNA OR DNA OR Protein) </t>
-  </si>
-  <si>
-    <t>4C_on-Chip</t>
+    <t xml:space="preserve">(PEAT AND RNA AND Method AND (sequence OR sequencing)) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -708,54 +612,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -767,28 +630,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1117,18 +965,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" customWidth="1"/>
-    <col min="3" max="4" width="39" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1155,7 +1002,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1178,7 +1025,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1198,7 +1045,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1221,7 +1068,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1241,7 +1088,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1264,7 +1111,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1284,7 +1131,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1307,7 +1154,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1327,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1347,7 +1194,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1367,7 +1214,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1387,912 +1234,910 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
         <v>185</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>189</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C54" t="s">
         <v>190</v>
       </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" t="s">
         <v>191</v>
-      </c>
-      <c r="E49" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="G51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" t="s">
-        <v>167</v>
-      </c>
-      <c r="G54" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
